--- a/Mod_Korean/Lang/KR/Game/General.xlsx
+++ b/Mod_Korean/Lang/KR/Game/General.xlsx
@@ -27683,7 +27683,6 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -27717,31 +27716,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
@@ -27957,7 +27942,6 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="6" width="16.0"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -38787,7 +38771,7 @@
       <c r="C545" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="D545" s="3" t="s">
+      <c r="D545" s="1" t="s">
         <v>2069</v>
       </c>
       <c r="E545" s="1" t="s">
@@ -72013,7 +71997,7 @@
       <c r="B2290" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="D2290" s="3" t="s">
+      <c r="D2290" s="1" t="s">
         <v>8489</v>
       </c>
       <c r="E2290" s="1" t="s">
@@ -72030,7 +72014,7 @@
       <c r="B2291" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="D2291" s="3" t="s">
+      <c r="D2291" s="1" t="s">
         <v>8493</v>
       </c>
       <c r="E2291" s="1" t="s">
@@ -73367,7 +73351,7 @@
       <c r="B2368" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="D2368" s="3" t="s">
+      <c r="D2368" s="1" t="s">
         <v>8799</v>
       </c>
       <c r="E2368" s="1" t="s">
@@ -73384,7 +73368,7 @@
       <c r="B2369" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="D2369" s="3" t="s">
+      <c r="D2369" s="1" t="s">
         <v>8803</v>
       </c>
       <c r="E2369" s="1" t="s">
@@ -74849,11 +74833,6 @@
     </row>
   </sheetData>
   <autoFilter ref="$A$2:$F$2"/>
-  <conditionalFormatting sqref="D1:D2452">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(D1))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>

--- a/Mod_Korean/Lang/KR/Game/General.xlsx
+++ b/Mod_Korean/Lang/KR/Game/General.xlsx
@@ -9505,7 +9505,7 @@
     <t xml:space="preserve">feed</t>
   </si>
   <si>
-    <t xml:space="preserve">와아...</t>
+    <t xml:space="preserve">와아…</t>
   </si>
   <si>
     <t xml:space="preserve">Wow...</t>
@@ -10645,7 +10645,7 @@
     <t xml:space="preserve">hintSupply</t>
   </si>
   <si>
-    <t xml:space="preserve">적하 타임에 따라 최초로 가지고 있는 아이템이나
+    <t xml:space="preserve">적하 타입에 따라 최초로 가지고 있는 아이템이나
 멤버의 경향이 바뀝니다.</t>
   </si>
   <si>
@@ -12520,7 +12520,7 @@
     <t xml:space="preserve">mentalOk</t>
   </si>
   <si>
-    <t xml:space="preserve">정신에 특이한 이상은 없다.</t>
+    <t xml:space="preserve">정신에 특별한 이상은 없다.</t>
   </si>
   <si>
     <t xml:space="preserve">Mental seems ok.</t>
@@ -12571,7 +12571,7 @@
     <t xml:space="preserve">textEncSkill</t>
   </si>
   <si>
-    <t xml:space="preserve">그것은 #1 기술을 #3</t>
+    <t xml:space="preserve">그것은 #1 기술을 #3.</t>
   </si>
   <si>
     <t xml:space="preserve">It #3 your skill of #1.</t>
@@ -12583,7 +12583,7 @@
     <t xml:space="preserve">textEncEnc</t>
   </si>
   <si>
-    <t xml:space="preserve">그것은 #1을(를) #3</t>
+    <t xml:space="preserve">그것은 #1을(를) #3.</t>
   </si>
   <si>
     <t xml:space="preserve">It #3 #1.</t>
@@ -24309,7 +24309,7 @@
     <t xml:space="preserve">news_tellLuck</t>
   </si>
   <si>
-    <t xml:space="preserve">오늘, 너의 운세는
+    <t xml:space="preserve">오늘 너의 운세는
 「&lt;b&gt;#1&lt;/b&gt;」라구!
 #2</t>
   </si>
@@ -24417,7 +24417,7 @@
     <t xml:space="preserve">net_nextUpload</t>
   </si>
   <si>
-    <t xml:space="preserve">#1 초후 다시 업로드 가능</t>
+    <t xml:space="preserve">#1 초 후 다시 업로드 가능</t>
   </si>
   <si>
     <t xml:space="preserve">Wait #1 second#(s)</t>
@@ -28071,14 +28071,16 @@
   <dimension ref="A1:F2465"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A1047" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A2303" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D1061" activeCellId="0" sqref="D1061"/>
+      <selection pane="bottomLeft" activeCell="D2322" activeCellId="0" sqref="D2322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="1" width="14.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="14.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="58.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="14.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39513,7 +39515,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="576" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="576" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="1" t="s">
         <v>2197</v>
       </c>
@@ -45813,7 +45815,7 @@
         <v>3446</v>
       </c>
     </row>
-    <row r="891" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="891" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="1" t="s">
         <v>3447</v>
       </c>

--- a/Mod_Korean/Lang/KR/Game/General.xlsx
+++ b/Mod_Korean/Lang/KR/Game/General.xlsx
@@ -26352,7 +26352,7 @@
     <t xml:space="preserve">guild_mage_benefit2</t>
   </si>
   <si>
-    <t xml:space="preserve">・도메인 변경 서비스.</t>
+    <t xml:space="preserve">・전문영역 변경 서비스.</t>
   </si>
   <si>
     <t xml:space="preserve">・ Domain change services.</t>
@@ -28248,9 +28248,9 @@
   <dimension ref="A1:F2479"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A1990" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A319" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L2009" activeCellId="0" sqref="L2009"/>
+      <selection pane="bottomLeft" activeCell="L339" activeCellId="0" sqref="L339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Mod_Korean/Lang/KR/Game/General.xlsx
+++ b/Mod_Korean/Lang/KR/Game/General.xlsx
@@ -7547,9 +7547,9 @@
     <t xml:space="preserve">dialog_switchCloud</t>
   </si>
   <si>
-    <t xml:space="preserve">세이브 데이터의 형식을 변경합니까?
-클라우드 변환은 백업 데이터의 수에 따라서
-몇 분이 걸릴 수 있습니다.</t>
+    <t xml:space="preserve">세이브 데이터의 형식을 변경하시겠습니까?
+클라우드 세이브로의 변환은 백업 데이터의 개수에 따라 수 분이 소요될 수 있습니다.
+</t>
   </si>
   <si>
     <t xml:space="preserve">Really change the format of this save data?
@@ -28098,7 +28098,7 @@
     <t xml:space="preserve">toCloud</t>
   </si>
   <si>
-    <t xml:space="preserve">클라우드로 바꾸기</t>
+    <t xml:space="preserve">클라우드 전환</t>
   </si>
   <si>
     <t xml:space="preserve">Switch Cloud</t>
@@ -28416,9 +28416,9 @@
   <dimension ref="A1:F2493"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A1058" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A633" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K1080" activeCellId="0" sqref="K1080"/>
+      <selection pane="bottomLeft" activeCell="D650" activeCellId="0" sqref="D650"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -39898,7 +39898,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="578" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="578" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="1" t="s">
         <v>2206</v>
       </c>
@@ -46295,7 +46295,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="898" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="898" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="1" t="s">
         <v>3476</v>
       </c>
@@ -75879,7 +75879,7 @@
         <v>9246</v>
       </c>
     </row>
-    <row r="2484" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2484" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2484" s="1" t="s">
         <v>9247</v>
       </c>

--- a/Mod_Korean/Lang/KR/Game/General.xlsx
+++ b/Mod_Korean/Lang/KR/Game/General.xlsx
@@ -24636,7 +24636,7 @@
   </si>
   <si>
     <t xml:space="preserve">오늘 너의 운세는
-「&lt;b&gt;#1&lt;/b&gt;」라구!
+「&lt;b&gt;#1&lt;/b&gt;」라구! 알았지!
 #2</t>
   </si>
   <si>
@@ -28843,9 +28843,9 @@
   <dimension ref="A1:F2519"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A2407" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A2176" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L2417" activeCellId="0" sqref="L2417"/>
+      <selection pane="bottomLeft" activeCell="D2188" activeCellId="0" sqref="D2188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
